--- a/biology/Botanique/Arracacha/Arracacha.xlsx
+++ b/biology/Botanique/Arracacha/Arracacha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arracacia xanthorrhiza
 L'arracacha, ou pomme de terre-céleri (Arracacia xanthorrhiza), est une plante potagère de la famille des Apiaceae d'origine andine cultivée en Amérique du Sud pour sa racine tubéreuse, riche en amidon. C'est un légume-racine qui développe après cuisson un goût intermédiaire entre le céleri, le chou et la châtaigne grillée. Très populaire en Amérique du Sud, cette plante y est l'objet d'une culture commerciale importante, notamment au Brésil. C'est la seule ombellifère domestiquée en Amérique du Sud.
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 févr. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 févr. 2013) :
 variété Arracacia xanthorrhiza var. andina (Britton) S. Knudsen, Sørensen &amp; Hermann
 variété Arracacia xanthorrhiza var. monocarpa S. Knudsen, Sørensen &amp; Hermann
 variété Arracacia xanthorrhiza var. xanthorrhiza</t>
